--- a/lazzen-hec-service-server/src/main/resources/template/gas.xlsx
+++ b/lazzen-hec-service-server/src/main/resources/template/gas.xlsx
@@ -44,7 +44,7 @@
     <t>{endTime}</t>
   </si>
   <si>
-    <t>用汽（单位KJ）</t>
+    <t>用汽（单位 KJ）</t>
   </si>
   <si>
     <t>起始时间值</t>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="30" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>

--- a/lazzen-hec-service-server/src/main/resources/template/gas.xlsx
+++ b/lazzen-hec-service-server/src/main/resources/template/gas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23960"/>
+    <workbookView windowHeight="21360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>{endTime}</t>
   </si>
   <si>
-    <t>用汽（单位 KJ）</t>
+    <t>用汽（单位 t/吨）</t>
   </si>
   <si>
     <t>起始时间值</t>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="30" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
